--- a/public/assets/templates/par_template.xlsx
+++ b/public/assets/templates/par_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\GitUpload\lgu-asset-inventory-system\public\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Appendix 71</t>
   </si>
@@ -97,9 +97,6 @@
     <t>PORTABLE JACK HAMMER HD</t>
   </si>
   <si>
-    <t>MOWER GRASS CUTTER(2 IN 1, 4 STROKE GX35)</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -531,43 +528,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -668,32 +638,44 @@
     <xf numFmtId="43" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -705,6 +687,51 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -714,50 +741,20 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="18" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="18" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="18" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1043,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1066,556 +1063,530 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="18">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
     </row>
     <row r="4" spans="1:7" ht="18">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="A5" s="107"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
     </row>
     <row r="6" spans="1:7" ht="15.75">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="A6" s="108"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="6"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="15.75">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="E7" s="10" t="s">
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="E7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13" t="s">
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="12"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="93" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="18"/>
+      <c r="A10" s="94"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="94"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="20">
+      <c r="A11" s="11">
         <v>1</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24">
+      <c r="D11" s="14"/>
+      <c r="E11" s="15">
         <v>45029</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="16">
         <v>15000</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="17">
         <v>15000</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="20">
-        <v>1</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="22" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="26"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="39"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="39"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="39"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="39"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="39"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="39"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="51"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="53"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="36"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="53"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="36"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="39"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="36"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="39"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="36"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="39"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="36"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="39"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="36"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="39"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="36"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="39"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="36"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="39"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="36"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="39"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="36"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="39"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="36"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="39"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="36"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="39"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="36"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="39"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="33"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="39"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="33"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="39"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="33"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="39"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="33"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="39"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="33"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="39"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="33"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="39"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="33"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="39"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="33"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="56"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A45" s="57"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="24">
-        <v>45029</v>
-      </c>
-      <c r="F12" s="25">
+      <c r="E45" s="60"/>
+      <c r="F45" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="62">
+        <f>SUM(G11:G44)</f>
         <v>15000</v>
       </c>
-      <c r="G12" s="26">
-        <f>F12*A12</f>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="35"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="44"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="45"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="48"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="45"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="48"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="48"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="48"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="45"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="48"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="45"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="48"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="45"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="60"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="45"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="62"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="45"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="62"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="45"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="48"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="45"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="48"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="45"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="48"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="45"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="48"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="45"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="48"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="45"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="48"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="45"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="48"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="45"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="48"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="45"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="48"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="45"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="48"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="45"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="48"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="45"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="48"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="42"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="48"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="42"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="48"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="42"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="48"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="42"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="48"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="42"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="48"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="42"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="48"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="42"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="48"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="42"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="65"/>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A45" s="66"/>
-      <c r="B45" s="67"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="66" t="s">
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="63"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="68"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="69"/>
-      <c r="F45" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="71">
-        <f>SUM(G11:G44)</f>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="72"/>
-      <c r="B46" s="73"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="77"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="78" t="s">
+      <c r="B47" s="96"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="79"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="81" t="s">
+      <c r="E47" s="71"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="69"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="82"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="80"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="84" t="s">
+      <c r="B48" s="98"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="85"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="87" t="s">
+      <c r="E48" s="101"/>
+      <c r="F48" s="101"/>
+      <c r="G48" s="102"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="88"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="89"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="90" t="s">
+      <c r="B49" s="86"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="91"/>
-      <c r="C49" s="92"/>
-      <c r="D49" s="93" t="s">
+      <c r="E49" s="104"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="105"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="94"/>
-      <c r="F49" s="94"/>
-      <c r="G49" s="95"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="96" t="s">
+      <c r="B50" s="80"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="97"/>
-      <c r="C50" s="98"/>
-      <c r="D50" s="99" t="s">
+      <c r="E50" s="83"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="84"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="100"/>
-      <c r="F50" s="100"/>
-      <c r="G50" s="101"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="90" t="s">
+      <c r="B51" s="86"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="86"/>
+      <c r="F51" s="86"/>
+      <c r="G51" s="87"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="88"/>
+      <c r="B52" s="89"/>
+      <c r="C52" s="90"/>
+      <c r="D52" s="88"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="89"/>
+      <c r="G52" s="90"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A53" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="91"/>
-      <c r="C51" s="92"/>
-      <c r="D51" s="90" t="s">
+      <c r="B53" s="74"/>
+      <c r="C53" s="75"/>
+      <c r="D53" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="91"/>
-      <c r="F51" s="91"/>
-      <c r="G51" s="92"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="102"/>
-      <c r="B52" s="103"/>
-      <c r="C52" s="104"/>
-      <c r="D52" s="102"/>
-      <c r="E52" s="103"/>
-      <c r="F52" s="103"/>
-      <c r="G52" s="104"/>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A53" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="B53" s="106"/>
-      <c r="C53" s="107"/>
-      <c r="D53" s="108" t="s">
-        <v>26</v>
-      </c>
-      <c r="E53" s="109"/>
-      <c r="F53" s="109"/>
-      <c r="G53" s="110"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:G48"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="D49:G49"/>
     <mergeCell ref="A3:G3"/>
@@ -1628,6 +1599,19 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:G52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/assets/templates/par_template.xlsx
+++ b/public/assets/templates/par_template.xlsx
@@ -642,6 +642,75 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -678,15 +747,6 @@
     <xf numFmtId="15" fontId="18" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -695,66 +755,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1063,15 +1063,15 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="18">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
     </row>
     <row r="4" spans="1:7" ht="18">
       <c r="A4" s="4"/>
@@ -1083,27 +1083,27 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
-      <c r="A5" s="107"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
     </row>
     <row r="6" spans="1:7" ht="15.75">
-      <c r="A6" s="108"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
       <c r="D6" s="6"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="15.75">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
       <c r="E7" s="7" t="s">
         <v>3</v>
       </c>
@@ -1111,11 +1111,11 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="8"/>
       <c r="E8" s="9" t="s">
         <v>5</v>
@@ -1124,36 +1124,36 @@
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="110" t="s">
+      <c r="D9" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="110" t="s">
+      <c r="E9" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="91" t="s">
+      <c r="F9" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="93" t="s">
+      <c r="G9" s="83" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A10" s="94"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="94"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="84"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="11">
@@ -1485,7 +1485,7 @@
         <v>15</v>
       </c>
       <c r="G45" s="62">
-        <f>SUM(G11:G44)</f>
+        <f>A11*F11</f>
         <v>15000</v>
       </c>
     </row>
@@ -1499,10 +1499,10 @@
       <c r="G46" s="68"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="95" t="s">
+      <c r="A47" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="96"/>
+      <c r="B47" s="89"/>
       <c r="C47" s="69"/>
       <c r="D47" s="70" t="s">
         <v>17</v>
@@ -1512,81 +1512,90 @@
       <c r="G47" s="69"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="97" t="s">
+      <c r="A48" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="98"/>
-      <c r="C48" s="99"/>
-      <c r="D48" s="100" t="s">
+      <c r="B48" s="91"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="101"/>
-      <c r="F48" s="101"/>
-      <c r="G48" s="102"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="94"/>
+      <c r="G48" s="95"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="85" t="s">
+      <c r="A49" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="B49" s="86"/>
-      <c r="C49" s="87"/>
-      <c r="D49" s="103" t="s">
+      <c r="B49" s="74"/>
+      <c r="C49" s="75"/>
+      <c r="D49" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="E49" s="104"/>
-      <c r="F49" s="104"/>
-      <c r="G49" s="105"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="78"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="79" t="s">
+      <c r="A50" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="80"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="82" t="s">
+      <c r="B50" s="103"/>
+      <c r="C50" s="104"/>
+      <c r="D50" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="E50" s="83"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="84"/>
+      <c r="E50" s="106"/>
+      <c r="F50" s="106"/>
+      <c r="G50" s="107"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="85" t="s">
+      <c r="A51" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="86"/>
-      <c r="C51" s="87"/>
-      <c r="D51" s="85" t="s">
+      <c r="B51" s="74"/>
+      <c r="C51" s="75"/>
+      <c r="D51" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="86"/>
-      <c r="F51" s="86"/>
-      <c r="G51" s="87"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="75"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="88"/>
-      <c r="B52" s="89"/>
-      <c r="C52" s="90"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="89"/>
-      <c r="G52" s="90"/>
+      <c r="A52" s="108"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="110"/>
+      <c r="D52" s="108"/>
+      <c r="E52" s="109"/>
+      <c r="F52" s="109"/>
+      <c r="G52" s="110"/>
     </row>
     <row r="53" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A53" s="73" t="s">
+      <c r="A53" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B53" s="74"/>
-      <c r="C53" s="75"/>
-      <c r="D53" s="76" t="s">
+      <c r="B53" s="97"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="E53" s="77"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="78"/>
+      <c r="E53" s="100"/>
+      <c r="F53" s="100"/>
+      <c r="G53" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:G52"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="D49:G49"/>
     <mergeCell ref="A3:G3"/>
@@ -1603,15 +1612,6 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:G52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
